--- a/natmiOut/OldD2/LR-pairs_lrc2p/Dag1-Lama4.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Dag1-Lama4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T31"/>
+  <dimension ref="A1:T37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -537,52 +537,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>21.0069476027036</v>
+        <v>21.0077345</v>
       </c>
       <c r="H2">
-        <v>21.0069476027036</v>
+        <v>42.015469</v>
       </c>
       <c r="I2">
-        <v>0.09381385291248992</v>
+        <v>0.07974258627637139</v>
       </c>
       <c r="J2">
-        <v>0.09381385291248992</v>
+        <v>0.07240574124537677</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>103.893812342682</v>
+        <v>104.0097425</v>
       </c>
       <c r="N2">
-        <v>103.893812342682</v>
+        <v>208.019485</v>
       </c>
       <c r="O2">
-        <v>0.4333846489112724</v>
+        <v>0.4223541729035338</v>
       </c>
       <c r="P2">
-        <v>0.4333846489112724</v>
+        <v>0.3348767214268842</v>
       </c>
       <c r="Q2">
-        <v>2182.491872127841</v>
+        <v>2185.009055853366</v>
       </c>
       <c r="R2">
-        <v>2182.491872127841</v>
+        <v>8740.036223413465</v>
       </c>
       <c r="S2">
-        <v>0.04065748370749319</v>
+        <v>0.03367961407194552</v>
       </c>
       <c r="T2">
-        <v>0.04065748370749319</v>
+        <v>0.02424699724073509</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,52 +599,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>21.0069476027036</v>
+        <v>21.0077345</v>
       </c>
       <c r="H3">
-        <v>21.0069476027036</v>
+        <v>42.015469</v>
       </c>
       <c r="I3">
-        <v>0.09381385291248992</v>
+        <v>0.07974258627637139</v>
       </c>
       <c r="J3">
-        <v>0.09381385291248992</v>
+        <v>0.07240574124537677</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>54.1259522956337</v>
+        <v>58.20636966666666</v>
       </c>
       <c r="N3">
-        <v>54.1259522956337</v>
+        <v>174.619109</v>
       </c>
       <c r="O3">
-        <v>0.2257820394082763</v>
+        <v>0.2363596190835905</v>
       </c>
       <c r="P3">
-        <v>0.2257820394082763</v>
+        <v>0.2811076795060988</v>
       </c>
       <c r="Q3">
-        <v>1137.021043820812</v>
+        <v>1222.783960166186</v>
       </c>
       <c r="R3">
-        <v>1137.021043820812</v>
+        <v>7336.703760997119</v>
       </c>
       <c r="S3">
-        <v>0.02118148303533004</v>
+        <v>0.01884792731702349</v>
       </c>
       <c r="T3">
-        <v>0.02118148303533004</v>
+        <v>0.02035380990440689</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,55 +658,55 @@
         <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>21.0069476027036</v>
+        <v>21.0077345</v>
       </c>
       <c r="H4">
-        <v>21.0069476027036</v>
+        <v>42.015469</v>
       </c>
       <c r="I4">
-        <v>0.09381385291248992</v>
+        <v>0.07974258627637139</v>
       </c>
       <c r="J4">
-        <v>0.09381385291248992</v>
+        <v>0.07240574124537677</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.103108648627824</v>
+        <v>0.03002933333333333</v>
       </c>
       <c r="N4">
-        <v>0.103108648627824</v>
+        <v>0.090088</v>
       </c>
       <c r="O4">
-        <v>0.0004301094018755852</v>
+        <v>0.0001219406368864389</v>
       </c>
       <c r="P4">
-        <v>0.0004301094018755852</v>
+        <v>0.0001450266742074914</v>
       </c>
       <c r="Q4">
-        <v>2.165997979110275</v>
+        <v>0.6308482618786666</v>
       </c>
       <c r="R4">
-        <v>2.165997979110275</v>
+        <v>3.785089571272</v>
       </c>
       <c r="S4">
-        <v>4.035022016383517E-05</v>
+        <v>9.723861757512532E-06</v>
       </c>
       <c r="T4">
-        <v>4.035022016383517E-05</v>
+        <v>1.050076384634518E-05</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,55 +720,55 @@
         <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>21.0069476027036</v>
+        <v>21.0077345</v>
       </c>
       <c r="H5">
-        <v>21.0069476027036</v>
+        <v>42.015469</v>
       </c>
       <c r="I5">
-        <v>0.09381385291248992</v>
+        <v>0.07974258627637139</v>
       </c>
       <c r="J5">
-        <v>0.09381385291248992</v>
+        <v>0.07240574124537677</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>68.2248494235461</v>
+        <v>0.1136856666666667</v>
       </c>
       <c r="N5">
-        <v>68.2248494235461</v>
+        <v>0.341057</v>
       </c>
       <c r="O5">
-        <v>0.2845944503116563</v>
+        <v>0.0004616453666923254</v>
       </c>
       <c r="P5">
-        <v>0.2845944503116563</v>
+        <v>0.0005490449607626364</v>
       </c>
       <c r="Q5">
-        <v>1433.195837042776</v>
+        <v>2.388278301788833</v>
       </c>
       <c r="R5">
-        <v>1433.195837042776</v>
+        <v>14.329669810733</v>
       </c>
       <c r="S5">
-        <v>0.02669890190124864</v>
+        <v>3.681279548254986E-05</v>
       </c>
       <c r="T5">
-        <v>0.02669890190124864</v>
+        <v>3.975400736105749E-05</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,60 +782,60 @@
         <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>21.0069476027036</v>
+        <v>21.0077345</v>
       </c>
       <c r="H6">
-        <v>21.0069476027036</v>
+        <v>42.015469</v>
       </c>
       <c r="I6">
-        <v>0.09381385291248992</v>
+        <v>0.07974258627637139</v>
       </c>
       <c r="J6">
-        <v>0.09381385291248992</v>
+        <v>0.07240574124537677</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>13.3788402946351</v>
+        <v>70.30838766666666</v>
       </c>
       <c r="N6">
-        <v>13.3788402946351</v>
+        <v>210.925163</v>
       </c>
       <c r="O6">
-        <v>0.05580875196691948</v>
+        <v>0.285502494356584</v>
       </c>
       <c r="P6">
-        <v>0.05580875196691948</v>
+        <v>0.3395543790134426</v>
       </c>
       <c r="Q6">
-        <v>281.0485970543392</v>
+        <v>1477.019941224408</v>
       </c>
       <c r="R6">
-        <v>281.0485970543392</v>
+        <v>8862.119647346446</v>
       </c>
       <c r="S6">
-        <v>0.005235634048254217</v>
+        <v>0.02276670728834914</v>
       </c>
       <c r="T6">
-        <v>0.005235634048254217</v>
+        <v>0.02458568650558192</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B7" t="s">
         <v>26</v>
@@ -844,55 +844,55 @@
         <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>22.0844036032643</v>
+        <v>21.0077345</v>
       </c>
       <c r="H7">
-        <v>22.0844036032643</v>
+        <v>42.015469</v>
       </c>
       <c r="I7">
-        <v>0.09862560855962028</v>
+        <v>0.07974258627637139</v>
       </c>
       <c r="J7">
-        <v>0.09862560855962028</v>
+        <v>0.07240574124537677</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>103.893812342682</v>
+        <v>13.5936885</v>
       </c>
       <c r="N7">
-        <v>103.893812342682</v>
+        <v>27.187377</v>
       </c>
       <c r="O7">
-        <v>0.4333846489112724</v>
+        <v>0.05520012765271271</v>
       </c>
       <c r="P7">
-        <v>0.4333846489112724</v>
+        <v>0.04376714841860452</v>
       </c>
       <c r="Q7">
-        <v>2294.432883657591</v>
+        <v>285.5725988837032</v>
       </c>
       <c r="R7">
-        <v>2294.432883657591</v>
+        <v>1142.290395534813</v>
       </c>
       <c r="S7">
-        <v>0.04274282473927161</v>
+        <v>0.004401800941813158</v>
       </c>
       <c r="T7">
-        <v>0.04274282473927161</v>
+        <v>0.00316899282344548</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,55 +906,55 @@
         <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>22.0844036032643</v>
+        <v>23.794572</v>
       </c>
       <c r="H8">
-        <v>22.0844036032643</v>
+        <v>71.38371599999999</v>
       </c>
       <c r="I8">
-        <v>0.09862560855962028</v>
+        <v>0.09032105344911566</v>
       </c>
       <c r="J8">
-        <v>0.09862560855962028</v>
+        <v>0.1230163792728212</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>54.1259522956337</v>
+        <v>104.0097425</v>
       </c>
       <c r="N8">
-        <v>54.1259522956337</v>
+        <v>208.019485</v>
       </c>
       <c r="O8">
-        <v>0.2257820394082763</v>
+        <v>0.4223541729035338</v>
       </c>
       <c r="P8">
-        <v>0.2257820394082763</v>
+        <v>0.3348767214268842</v>
       </c>
       <c r="Q8">
-        <v>1195.339375907804</v>
+        <v>2474.86730661771</v>
       </c>
       <c r="R8">
-        <v>1195.339375907804</v>
+        <v>14849.20383970626</v>
       </c>
       <c r="S8">
-        <v>0.02226789103847342</v>
+        <v>0.03814747382527711</v>
       </c>
       <c r="T8">
-        <v>0.02226789103847342</v>
+        <v>0.04119532177268847</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,55 +968,55 @@
         <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>22.0844036032643</v>
+        <v>23.794572</v>
       </c>
       <c r="H9">
-        <v>22.0844036032643</v>
+        <v>71.38371599999999</v>
       </c>
       <c r="I9">
-        <v>0.09862560855962028</v>
+        <v>0.09032105344911566</v>
       </c>
       <c r="J9">
-        <v>0.09862560855962028</v>
+        <v>0.1230163792728212</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.103108648627824</v>
+        <v>58.20636966666666</v>
       </c>
       <c r="N9">
-        <v>0.103108648627824</v>
+        <v>174.619109</v>
       </c>
       <c r="O9">
-        <v>0.0004301094018755852</v>
+        <v>0.2363596190835905</v>
       </c>
       <c r="P9">
-        <v>0.0004301094018755852</v>
+        <v>0.2811076795060988</v>
       </c>
       <c r="Q9">
-        <v>2.277093011284029</v>
+        <v>1384.995653892116</v>
       </c>
       <c r="R9">
-        <v>2.277093011284029</v>
+        <v>12464.96088502904</v>
       </c>
       <c r="S9">
-        <v>4.241980150719388E-05</v>
+        <v>0.02134824978846159</v>
       </c>
       <c r="T9">
-        <v>4.241980150719388E-05</v>
+        <v>0.03458084891862491</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,55 +1030,55 @@
         <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>22.0844036032643</v>
+        <v>23.794572</v>
       </c>
       <c r="H10">
-        <v>22.0844036032643</v>
+        <v>71.38371599999999</v>
       </c>
       <c r="I10">
-        <v>0.09862560855962028</v>
+        <v>0.09032105344911566</v>
       </c>
       <c r="J10">
-        <v>0.09862560855962028</v>
+        <v>0.1230163792728212</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M10">
-        <v>68.2248494235461</v>
+        <v>0.03002933333333333</v>
       </c>
       <c r="N10">
-        <v>68.2248494235461</v>
+        <v>0.090088</v>
       </c>
       <c r="O10">
-        <v>0.2845944503116563</v>
+        <v>0.0001219406368864389</v>
       </c>
       <c r="P10">
-        <v>0.2845944503116563</v>
+        <v>0.0001450266742074914</v>
       </c>
       <c r="Q10">
-        <v>1506.705110441526</v>
+        <v>0.714535134112</v>
       </c>
       <c r="R10">
-        <v>1506.705110441526</v>
+        <v>6.430816207007999</v>
       </c>
       <c r="S10">
-        <v>0.02806830085467771</v>
+        <v>1.101380678183926E-05</v>
       </c>
       <c r="T10">
-        <v>0.02806830085467771</v>
+        <v>1.784065635898463E-05</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,60 +1092,60 @@
         <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>22.0844036032643</v>
+        <v>23.794572</v>
       </c>
       <c r="H11">
-        <v>22.0844036032643</v>
+        <v>71.38371599999999</v>
       </c>
       <c r="I11">
-        <v>0.09862560855962028</v>
+        <v>0.09032105344911566</v>
       </c>
       <c r="J11">
-        <v>0.09862560855962028</v>
+        <v>0.1230163792728212</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>13.3788402946351</v>
+        <v>0.1136856666666667</v>
       </c>
       <c r="N11">
-        <v>13.3788402946351</v>
+        <v>0.341057</v>
       </c>
       <c r="O11">
-        <v>0.05580875196691948</v>
+        <v>0.0004616453666923254</v>
       </c>
       <c r="P11">
-        <v>0.05580875196691948</v>
+        <v>0.0005490449607626364</v>
       </c>
       <c r="Q11">
-        <v>295.463708810337</v>
+        <v>2.705101780868</v>
       </c>
       <c r="R11">
-        <v>295.463708810337</v>
+        <v>24.345916027812</v>
       </c>
       <c r="S11">
-        <v>0.005504172125690339</v>
+        <v>4.169629583955412E-05</v>
       </c>
       <c r="T11">
-        <v>0.005504172125690339</v>
+        <v>6.754152313100771E-05</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B12" t="s">
         <v>26</v>
@@ -1154,60 +1154,60 @@
         <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>7.15455274342772</v>
+        <v>23.794572</v>
       </c>
       <c r="H12">
-        <v>7.15455274342772</v>
+        <v>71.38371599999999</v>
       </c>
       <c r="I12">
-        <v>0.03195115118201162</v>
+        <v>0.09032105344911566</v>
       </c>
       <c r="J12">
-        <v>0.03195115118201162</v>
+        <v>0.1230163792728212</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>103.893812342682</v>
+        <v>70.30838766666666</v>
       </c>
       <c r="N12">
-        <v>103.893812342682</v>
+        <v>210.925163</v>
       </c>
       <c r="O12">
-        <v>0.4333846489112724</v>
+        <v>0.285502494356584</v>
       </c>
       <c r="P12">
-        <v>0.4333846489112724</v>
+        <v>0.3395543790134426</v>
       </c>
       <c r="Q12">
-        <v>743.3137601215002</v>
+        <v>1672.957992538412</v>
       </c>
       <c r="R12">
-        <v>743.3137601215002</v>
+        <v>15056.62193284571</v>
       </c>
       <c r="S12">
-        <v>0.01384713843732709</v>
+        <v>0.02578688605263687</v>
       </c>
       <c r="T12">
-        <v>0.01384713843732709</v>
+        <v>0.04177075027246493</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B13" t="s">
         <v>26</v>
@@ -1216,55 +1216,55 @@
         <v>27</v>
       </c>
       <c r="D13" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>7.15455274342772</v>
+        <v>23.794572</v>
       </c>
       <c r="H13">
-        <v>7.15455274342772</v>
+        <v>71.38371599999999</v>
       </c>
       <c r="I13">
-        <v>0.03195115118201162</v>
+        <v>0.09032105344911566</v>
       </c>
       <c r="J13">
-        <v>0.03195115118201162</v>
+        <v>0.1230163792728212</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>54.1259522956337</v>
+        <v>13.5936885</v>
       </c>
       <c r="N13">
-        <v>54.1259522956337</v>
+        <v>27.187377</v>
       </c>
       <c r="O13">
-        <v>0.2257820394082763</v>
+        <v>0.05520012765271271</v>
       </c>
       <c r="P13">
-        <v>0.2257820394082763</v>
+        <v>0.04376714841860452</v>
       </c>
       <c r="Q13">
-        <v>387.246980487364</v>
+        <v>323.455999758822</v>
       </c>
       <c r="R13">
-        <v>387.246980487364</v>
+        <v>1940.735998552932</v>
       </c>
       <c r="S13">
-        <v>0.007213996075316742</v>
+        <v>0.004985733680118672</v>
       </c>
       <c r="T13">
-        <v>0.007213996075316742</v>
+        <v>0.005384076129552911</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,55 +1278,55 @@
         <v>27</v>
       </c>
       <c r="D14" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>7.15455274342772</v>
+        <v>7.255376666666667</v>
       </c>
       <c r="H14">
-        <v>7.15455274342772</v>
+        <v>21.76613</v>
       </c>
       <c r="I14">
-        <v>0.03195115118201162</v>
+        <v>0.02754045181831666</v>
       </c>
       <c r="J14">
-        <v>0.03195115118201162</v>
+        <v>0.03750982231551986</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.103108648627824</v>
+        <v>104.0097425</v>
       </c>
       <c r="N14">
-        <v>0.103108648627824</v>
+        <v>208.019485</v>
       </c>
       <c r="O14">
-        <v>0.0004301094018755852</v>
+        <v>0.4223541729035338</v>
       </c>
       <c r="P14">
-        <v>0.0004301094018755852</v>
+        <v>0.3348767214268842</v>
       </c>
       <c r="Q14">
-        <v>0.737696264911323</v>
+        <v>754.6298588405084</v>
       </c>
       <c r="R14">
-        <v>0.737696264911323</v>
+        <v>4527.77915304305</v>
       </c>
       <c r="S14">
-        <v>1.374249052413142E-05</v>
+        <v>0.01163182474911476</v>
       </c>
       <c r="T14">
-        <v>1.374249052413142E-05</v>
+        <v>0.01256116631832627</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,55 +1340,55 @@
         <v>27</v>
       </c>
       <c r="D15" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>7.15455274342772</v>
+        <v>7.255376666666667</v>
       </c>
       <c r="H15">
-        <v>7.15455274342772</v>
+        <v>21.76613</v>
       </c>
       <c r="I15">
-        <v>0.03195115118201162</v>
+        <v>0.02754045181831666</v>
       </c>
       <c r="J15">
-        <v>0.03195115118201162</v>
+        <v>0.03750982231551986</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>68.2248494235461</v>
+        <v>58.20636966666666</v>
       </c>
       <c r="N15">
-        <v>68.2248494235461</v>
+        <v>174.619109</v>
       </c>
       <c r="O15">
-        <v>0.2845944503116563</v>
+        <v>0.2363596190835905</v>
       </c>
       <c r="P15">
-        <v>0.2845944503116563</v>
+        <v>0.2811076795060988</v>
       </c>
       <c r="Q15">
-        <v>488.1182836131749</v>
+        <v>422.3091363309077</v>
       </c>
       <c r="R15">
-        <v>488.1182836131749</v>
+        <v>3800.78222697817</v>
       </c>
       <c r="S15">
-        <v>0.009093120307469222</v>
+        <v>0.006509450701167302</v>
       </c>
       <c r="T15">
-        <v>0.009093120307469222</v>
+        <v>0.01054429910980187</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,122 +1402,122 @@
         <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>7.15455274342772</v>
+        <v>7.255376666666667</v>
       </c>
       <c r="H16">
-        <v>7.15455274342772</v>
+        <v>21.76613</v>
       </c>
       <c r="I16">
-        <v>0.03195115118201162</v>
+        <v>0.02754045181831666</v>
       </c>
       <c r="J16">
-        <v>0.03195115118201162</v>
+        <v>0.03750982231551986</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L16">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M16">
-        <v>13.3788402946351</v>
+        <v>0.03002933333333333</v>
       </c>
       <c r="N16">
-        <v>13.3788402946351</v>
+        <v>0.090088</v>
       </c>
       <c r="O16">
-        <v>0.05580875196691948</v>
+        <v>0.0001219406368864389</v>
       </c>
       <c r="P16">
-        <v>0.05580875196691948</v>
+        <v>0.0001450266742074914</v>
       </c>
       <c r="Q16">
-        <v>95.71961853386289</v>
+        <v>0.2178741243822222</v>
       </c>
       <c r="R16">
-        <v>95.71961853386289</v>
+        <v>1.96086711944</v>
       </c>
       <c r="S16">
-        <v>0.001783153871374432</v>
+        <v>3.358300234865819E-06</v>
       </c>
       <c r="T16">
-        <v>0.001783153871374432</v>
+        <v>5.439924780533788E-06</v>
       </c>
     </row>
     <row r="17" spans="1:20">
       <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" t="s">
         <v>23</v>
       </c>
-      <c r="B17" t="s">
-        <v>26</v>
-      </c>
-      <c r="C17" t="s">
-        <v>27</v>
-      </c>
-      <c r="D17" t="s">
-        <v>20</v>
-      </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>6.66853239748561</v>
+        <v>7.255376666666667</v>
       </c>
       <c r="H17">
-        <v>6.66853239748561</v>
+        <v>21.76613</v>
       </c>
       <c r="I17">
-        <v>0.02978065777625749</v>
+        <v>0.02754045181831666</v>
       </c>
       <c r="J17">
-        <v>0.02978065777625749</v>
+        <v>0.03750982231551986</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>103.893812342682</v>
+        <v>0.1136856666666667</v>
       </c>
       <c r="N17">
-        <v>103.893812342682</v>
+        <v>0.341057</v>
       </c>
       <c r="O17">
-        <v>0.4333846489112724</v>
+        <v>0.0004616453666923254</v>
       </c>
       <c r="P17">
-        <v>0.4333846489112724</v>
+        <v>0.0005490449607626364</v>
       </c>
       <c r="Q17">
-        <v>692.8192535054652</v>
+        <v>0.8248323332677778</v>
       </c>
       <c r="R17">
-        <v>692.8192535054652</v>
+        <v>7.42349099941</v>
       </c>
       <c r="S17">
-        <v>0.01290647991471011</v>
+        <v>1.271392197853911E-05</v>
       </c>
       <c r="T17">
-        <v>0.01290647991471011</v>
+        <v>2.059457892143806E-05</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B18" t="s">
         <v>26</v>
@@ -1526,60 +1526,60 @@
         <v>27</v>
       </c>
       <c r="D18" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>6.66853239748561</v>
+        <v>7.255376666666667</v>
       </c>
       <c r="H18">
-        <v>6.66853239748561</v>
+        <v>21.76613</v>
       </c>
       <c r="I18">
-        <v>0.02978065777625749</v>
+        <v>0.02754045181831666</v>
       </c>
       <c r="J18">
-        <v>0.02978065777625749</v>
+        <v>0.03750982231551986</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>54.1259522956337</v>
+        <v>70.30838766666666</v>
       </c>
       <c r="N18">
-        <v>54.1259522956337</v>
+        <v>210.925163</v>
       </c>
       <c r="O18">
-        <v>0.2257820394082763</v>
+        <v>0.285502494356584</v>
       </c>
       <c r="P18">
-        <v>0.2257820394082763</v>
+        <v>0.3395543790134426</v>
       </c>
       <c r="Q18">
-        <v>360.9406664281939</v>
+        <v>510.1138353476878</v>
       </c>
       <c r="R18">
-        <v>360.9406664281939</v>
+        <v>4591.02451812919</v>
       </c>
       <c r="S18">
-        <v>0.00672393764764336</v>
+        <v>0.007862867689836727</v>
       </c>
       <c r="T18">
-        <v>0.00672393764764336</v>
+        <v>0.01273662442325092</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B19" t="s">
         <v>26</v>
@@ -1588,55 +1588,55 @@
         <v>27</v>
       </c>
       <c r="D19" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>6.66853239748561</v>
+        <v>7.255376666666667</v>
       </c>
       <c r="H19">
-        <v>6.66853239748561</v>
+        <v>21.76613</v>
       </c>
       <c r="I19">
-        <v>0.02978065777625749</v>
+        <v>0.02754045181831666</v>
       </c>
       <c r="J19">
-        <v>0.02978065777625749</v>
+        <v>0.03750982231551986</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>0.103108648627824</v>
+        <v>13.5936885</v>
       </c>
       <c r="N19">
-        <v>0.103108648627824</v>
+        <v>27.187377</v>
       </c>
       <c r="O19">
-        <v>0.0004301094018755852</v>
+        <v>0.05520012765271271</v>
       </c>
       <c r="P19">
-        <v>0.0004301094018755852</v>
+        <v>0.04376714841860452</v>
       </c>
       <c r="Q19">
-        <v>0.6875833638356045</v>
+        <v>98.627330356835</v>
       </c>
       <c r="R19">
-        <v>0.6875833638356045</v>
+        <v>591.76398214101</v>
       </c>
       <c r="S19">
-        <v>1.280894090360761E-05</v>
+        <v>0.001520236455984463</v>
       </c>
       <c r="T19">
-        <v>1.280894090360761E-05</v>
+        <v>0.001641697960438842</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1650,55 +1650,55 @@
         <v>27</v>
       </c>
       <c r="D20" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>6.66853239748561</v>
+        <v>6.849529333333333</v>
       </c>
       <c r="H20">
-        <v>6.66853239748561</v>
+        <v>20.548588</v>
       </c>
       <c r="I20">
-        <v>0.02978065777625749</v>
+        <v>0.02599990892953593</v>
       </c>
       <c r="J20">
-        <v>0.02978065777625749</v>
+        <v>0.03541161817534047</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>68.2248494235461</v>
+        <v>104.0097425</v>
       </c>
       <c r="N20">
-        <v>68.2248494235461</v>
+        <v>208.019485</v>
       </c>
       <c r="O20">
-        <v>0.2845944503116563</v>
+        <v>0.4223541729035338</v>
       </c>
       <c r="P20">
-        <v>0.2845944503116563</v>
+        <v>0.3348767214268842</v>
       </c>
       <c r="Q20">
-        <v>454.9596186944946</v>
+        <v>712.4177822061966</v>
       </c>
       <c r="R20">
-        <v>454.9596186944946</v>
+        <v>4274.50669323718</v>
       </c>
       <c r="S20">
-        <v>0.008475409929753553</v>
+        <v>0.01098117003150135</v>
       </c>
       <c r="T20">
-        <v>0.008475409929753553</v>
+        <v>0.01185852659497868</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1712,60 +1712,60 @@
         <v>27</v>
       </c>
       <c r="D21" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>6.66853239748561</v>
+        <v>6.849529333333333</v>
       </c>
       <c r="H21">
-        <v>6.66853239748561</v>
+        <v>20.548588</v>
       </c>
       <c r="I21">
-        <v>0.02978065777625749</v>
+        <v>0.02599990892953593</v>
       </c>
       <c r="J21">
-        <v>0.02978065777625749</v>
+        <v>0.03541161817534047</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>13.3788402946351</v>
+        <v>58.20636966666666</v>
       </c>
       <c r="N21">
-        <v>13.3788402946351</v>
+        <v>174.619109</v>
       </c>
       <c r="O21">
-        <v>0.05580875196691948</v>
+        <v>0.2363596190835905</v>
       </c>
       <c r="P21">
-        <v>0.05580875196691948</v>
+        <v>0.2811076795060988</v>
       </c>
       <c r="Q21">
-        <v>89.21722994556009</v>
+        <v>398.6862364186768</v>
       </c>
       <c r="R21">
-        <v>89.21722994556009</v>
+        <v>3588.176127768091</v>
       </c>
       <c r="S21">
-        <v>0.001662021343246866</v>
+        <v>0.006145328570793155</v>
       </c>
       <c r="T21">
-        <v>0.001662021343246866</v>
+        <v>0.00995447781282595</v>
       </c>
     </row>
     <row r="22" spans="1:20">
       <c r="A22" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B22" t="s">
         <v>26</v>
@@ -1774,60 +1774,60 @@
         <v>27</v>
       </c>
       <c r="D22" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>14.990646935205</v>
+        <v>6.849529333333333</v>
       </c>
       <c r="H22">
-        <v>14.990646935205</v>
+        <v>20.548588</v>
       </c>
       <c r="I22">
-        <v>0.06694596346122149</v>
+        <v>0.02599990892953593</v>
       </c>
       <c r="J22">
-        <v>0.06694596346122149</v>
+        <v>0.03541161817534047</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L22">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M22">
-        <v>103.893812342682</v>
+        <v>0.03002933333333333</v>
       </c>
       <c r="N22">
-        <v>103.893812342682</v>
+        <v>0.090088</v>
       </c>
       <c r="O22">
-        <v>0.4333846489112724</v>
+        <v>0.0001219406368864389</v>
       </c>
       <c r="P22">
-        <v>0.4333846489112724</v>
+        <v>0.0001450266742074914</v>
       </c>
       <c r="Q22">
-        <v>1557.435459581589</v>
+        <v>0.2056867995271111</v>
       </c>
       <c r="R22">
-        <v>1557.435459581589</v>
+        <v>1.851181195744</v>
       </c>
       <c r="S22">
-        <v>0.02901335287066834</v>
+        <v>3.170445453857022E-06</v>
       </c>
       <c r="T22">
-        <v>0.02901335287066834</v>
+        <v>5.135629212275182E-06</v>
       </c>
     </row>
     <row r="23" spans="1:20">
       <c r="A23" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B23" t="s">
         <v>26</v>
@@ -1836,122 +1836,122 @@
         <v>27</v>
       </c>
       <c r="D23" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>14.990646935205</v>
+        <v>6.849529333333333</v>
       </c>
       <c r="H23">
-        <v>14.990646935205</v>
+        <v>20.548588</v>
       </c>
       <c r="I23">
-        <v>0.06694596346122149</v>
+        <v>0.02599990892953593</v>
       </c>
       <c r="J23">
-        <v>0.06694596346122149</v>
+        <v>0.03541161817534047</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>54.1259522956337</v>
+        <v>0.1136856666666667</v>
       </c>
       <c r="N23">
-        <v>54.1259522956337</v>
+        <v>0.341057</v>
       </c>
       <c r="O23">
-        <v>0.2257820394082763</v>
+        <v>0.0004616453666923254</v>
       </c>
       <c r="P23">
-        <v>0.2257820394082763</v>
+        <v>0.0005490449607626364</v>
       </c>
       <c r="Q23">
-        <v>811.3830408955934</v>
+        <v>0.7786933086128889</v>
       </c>
       <c r="R23">
-        <v>811.3830408955934</v>
+        <v>7.008239777516</v>
       </c>
       <c r="S23">
-        <v>0.01511519616042654</v>
+        <v>1.200273749174268E-05</v>
       </c>
       <c r="T23">
-        <v>0.01511519616042654</v>
+        <v>1.944257051162127E-05</v>
       </c>
     </row>
     <row r="24" spans="1:20">
       <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" t="s">
         <v>24</v>
       </c>
-      <c r="B24" t="s">
-        <v>26</v>
-      </c>
-      <c r="C24" t="s">
-        <v>27</v>
-      </c>
-      <c r="D24" t="s">
-        <v>23</v>
-      </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>14.990646935205</v>
+        <v>6.849529333333333</v>
       </c>
       <c r="H24">
-        <v>14.990646935205</v>
+        <v>20.548588</v>
       </c>
       <c r="I24">
-        <v>0.06694596346122149</v>
+        <v>0.02599990892953593</v>
       </c>
       <c r="J24">
-        <v>0.06694596346122149</v>
+        <v>0.03541161817534047</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>0.103108648627824</v>
+        <v>70.30838766666666</v>
       </c>
       <c r="N24">
-        <v>0.103108648627824</v>
+        <v>210.925163</v>
       </c>
       <c r="O24">
-        <v>0.0004301094018755852</v>
+        <v>0.285502494356584</v>
       </c>
       <c r="P24">
-        <v>0.0004301094018755852</v>
+        <v>0.3395543790134426</v>
       </c>
       <c r="Q24">
-        <v>1.545665347545819</v>
+        <v>481.5793637022048</v>
       </c>
       <c r="R24">
-        <v>1.545665347545819</v>
+        <v>4334.214273319843</v>
       </c>
       <c r="S24">
-        <v>2.879408830229076E-05</v>
+        <v>0.00742303885242653</v>
       </c>
       <c r="T24">
-        <v>2.879408830229076E-05</v>
+        <v>0.01202417001938887</v>
       </c>
     </row>
     <row r="25" spans="1:20">
       <c r="A25" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25" t="s">
         <v>26</v>
@@ -1960,55 +1960,55 @@
         <v>27</v>
       </c>
       <c r="D25" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>14.990646935205</v>
+        <v>6.849529333333333</v>
       </c>
       <c r="H25">
-        <v>14.990646935205</v>
+        <v>20.548588</v>
       </c>
       <c r="I25">
-        <v>0.06694596346122149</v>
+        <v>0.02599990892953593</v>
       </c>
       <c r="J25">
-        <v>0.06694596346122149</v>
+        <v>0.03541161817534047</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>68.2248494235461</v>
+        <v>13.5936885</v>
       </c>
       <c r="N25">
-        <v>68.2248494235461</v>
+        <v>27.187377</v>
       </c>
       <c r="O25">
-        <v>0.2845944503116563</v>
+        <v>0.05520012765271271</v>
       </c>
       <c r="P25">
-        <v>0.2845944503116563</v>
+        <v>0.04376714841860452</v>
       </c>
       <c r="Q25">
-        <v>1022.734629915904</v>
+        <v>93.11036812894599</v>
       </c>
       <c r="R25">
-        <v>1022.734629915904</v>
+        <v>558.662208773676</v>
       </c>
       <c r="S25">
-        <v>0.01905244967183056</v>
+        <v>0.001435198291869288</v>
       </c>
       <c r="T25">
-        <v>0.01905244967183056</v>
+        <v>0.00154986554842308</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2022,60 +2022,60 @@
         <v>27</v>
       </c>
       <c r="D26" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>14.990646935205</v>
+        <v>15.48994666666667</v>
       </c>
       <c r="H26">
-        <v>14.990646935205</v>
+        <v>46.46984</v>
       </c>
       <c r="I26">
-        <v>0.06694596346122149</v>
+        <v>0.05879779223614324</v>
       </c>
       <c r="J26">
-        <v>0.06694596346122149</v>
+        <v>0.08008201005096623</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>13.3788402946351</v>
+        <v>104.0097425</v>
       </c>
       <c r="N26">
-        <v>13.3788402946351</v>
+        <v>208.019485</v>
       </c>
       <c r="O26">
-        <v>0.05580875196691948</v>
+        <v>0.4223541729035338</v>
       </c>
       <c r="P26">
-        <v>0.05580875196691948</v>
+        <v>0.3348767214268842</v>
       </c>
       <c r="Q26">
-        <v>200.5574712593688</v>
+        <v>1611.105364138733</v>
       </c>
       <c r="R26">
-        <v>200.5574712593688</v>
+        <v>9666.632184832401</v>
       </c>
       <c r="S26">
-        <v>0.003736170669993764</v>
+        <v>0.0248334929084501</v>
       </c>
       <c r="T26">
-        <v>0.003736170669993764</v>
+        <v>0.02681760097114235</v>
       </c>
     </row>
     <row r="27" spans="1:20">
       <c r="A27" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B27" t="s">
         <v>26</v>
@@ -2084,60 +2084,60 @@
         <v>27</v>
       </c>
       <c r="D27" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F27">
         <v>1</v>
       </c>
       <c r="G27">
-        <v>152.016511989126</v>
+        <v>15.48994666666667</v>
       </c>
       <c r="H27">
-        <v>152.016511989126</v>
+        <v>46.46984</v>
       </c>
       <c r="I27">
-        <v>0.6788827661083993</v>
+        <v>0.05879779223614324</v>
       </c>
       <c r="J27">
-        <v>0.6788827661083993</v>
+        <v>0.08008201005096623</v>
       </c>
       <c r="K27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L27">
         <v>1</v>
       </c>
       <c r="M27">
-        <v>103.893812342682</v>
+        <v>58.20636966666666</v>
       </c>
       <c r="N27">
-        <v>103.893812342682</v>
+        <v>174.619109</v>
       </c>
       <c r="O27">
-        <v>0.4333846489112724</v>
+        <v>0.2363596190835905</v>
       </c>
       <c r="P27">
-        <v>0.4333846489112724</v>
+        <v>0.2811076795060988</v>
       </c>
       <c r="Q27">
-        <v>15793.57496958733</v>
+        <v>901.6135617969511</v>
       </c>
       <c r="R27">
-        <v>15793.57496958733</v>
+        <v>8114.52205617256</v>
       </c>
       <c r="S27">
-        <v>0.294217369241802</v>
+        <v>0.01389742377589091</v>
       </c>
       <c r="T27">
-        <v>0.294217369241802</v>
+        <v>0.02251166801561119</v>
       </c>
     </row>
     <row r="28" spans="1:20">
       <c r="A28" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B28" t="s">
         <v>26</v>
@@ -2146,60 +2146,60 @@
         <v>27</v>
       </c>
       <c r="D28" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F28">
         <v>1</v>
       </c>
       <c r="G28">
-        <v>152.016511989126</v>
+        <v>15.48994666666667</v>
       </c>
       <c r="H28">
-        <v>152.016511989126</v>
+        <v>46.46984</v>
       </c>
       <c r="I28">
-        <v>0.6788827661083993</v>
+        <v>0.05879779223614324</v>
       </c>
       <c r="J28">
-        <v>0.6788827661083993</v>
+        <v>0.08008201005096623</v>
       </c>
       <c r="K28">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L28">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M28">
-        <v>54.1259522956337</v>
+        <v>0.03002933333333333</v>
       </c>
       <c r="N28">
-        <v>54.1259522956337</v>
+        <v>0.090088</v>
       </c>
       <c r="O28">
-        <v>0.2257820394082763</v>
+        <v>0.0001219406368864389</v>
       </c>
       <c r="P28">
-        <v>0.2257820394082763</v>
+        <v>0.0001450266742074914</v>
       </c>
       <c r="Q28">
-        <v>8228.038476072063</v>
+        <v>0.465152771768889</v>
       </c>
       <c r="R28">
-        <v>8228.038476072063</v>
+        <v>4.186374945920001</v>
       </c>
       <c r="S28">
-        <v>0.1532795354510862</v>
+        <v>7.169840232791821E-06</v>
       </c>
       <c r="T28">
-        <v>0.1532795354510862</v>
+        <v>1.161402758154253E-05</v>
       </c>
     </row>
     <row r="29" spans="1:20">
       <c r="A29" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B29" t="s">
         <v>26</v>
@@ -2211,57 +2211,57 @@
         <v>23</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F29">
         <v>1</v>
       </c>
       <c r="G29">
-        <v>152.016511989126</v>
+        <v>15.48994666666667</v>
       </c>
       <c r="H29">
-        <v>152.016511989126</v>
+        <v>46.46984</v>
       </c>
       <c r="I29">
-        <v>0.6788827661083993</v>
+        <v>0.05879779223614324</v>
       </c>
       <c r="J29">
-        <v>0.6788827661083993</v>
+        <v>0.08008201005096623</v>
       </c>
       <c r="K29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L29">
         <v>1</v>
       </c>
       <c r="M29">
-        <v>0.103108648627824</v>
+        <v>0.1136856666666667</v>
       </c>
       <c r="N29">
-        <v>0.103108648627824</v>
+        <v>0.341057</v>
       </c>
       <c r="O29">
-        <v>0.0004301094018755852</v>
+        <v>0.0004616453666923254</v>
       </c>
       <c r="P29">
-        <v>0.0004301094018755852</v>
+        <v>0.0005490449607626364</v>
       </c>
       <c r="Q29">
-        <v>15.67421712031419</v>
+        <v>1.760984913431111</v>
       </c>
       <c r="R29">
-        <v>15.67421712031419</v>
+        <v>15.84886422088</v>
       </c>
       <c r="S29">
-        <v>0.0002919938604745264</v>
+        <v>2.714372835755351E-05</v>
       </c>
       <c r="T29">
-        <v>0.0002919938604745264</v>
+        <v>4.39686240662258E-05</v>
       </c>
     </row>
     <row r="30" spans="1:20">
       <c r="A30" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B30" t="s">
         <v>26</v>
@@ -2273,57 +2273,57 @@
         <v>24</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F30">
         <v>1</v>
       </c>
       <c r="G30">
-        <v>152.016511989126</v>
+        <v>15.48994666666667</v>
       </c>
       <c r="H30">
-        <v>152.016511989126</v>
+        <v>46.46984</v>
       </c>
       <c r="I30">
-        <v>0.6788827661083993</v>
+        <v>0.05879779223614324</v>
       </c>
       <c r="J30">
-        <v>0.6788827661083993</v>
+        <v>0.08008201005096623</v>
       </c>
       <c r="K30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L30">
         <v>1</v>
       </c>
       <c r="M30">
-        <v>68.2248494235461</v>
+        <v>70.30838766666666</v>
       </c>
       <c r="N30">
-        <v>68.2248494235461</v>
+        <v>210.925163</v>
       </c>
       <c r="O30">
-        <v>0.2845944503116563</v>
+        <v>0.285502494356584</v>
       </c>
       <c r="P30">
-        <v>0.2845944503116563</v>
+        <v>0.3395543790134426</v>
       </c>
       <c r="Q30">
-        <v>10371.30364035081</v>
+        <v>1089.073175175991</v>
       </c>
       <c r="R30">
-        <v>10371.30364035081</v>
+        <v>9801.658576583921</v>
       </c>
       <c r="S30">
-        <v>0.1932062676466766</v>
+        <v>0.01678691634607908</v>
       </c>
       <c r="T30">
-        <v>0.1932062676466766</v>
+        <v>0.02719219719300411</v>
       </c>
     </row>
     <row r="31" spans="1:20">
       <c r="A31" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B31" t="s">
         <v>26</v>
@@ -2335,52 +2335,424 @@
         <v>25</v>
       </c>
       <c r="E31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F31">
         <v>1</v>
       </c>
       <c r="G31">
-        <v>152.016511989126</v>
+        <v>15.48994666666667</v>
       </c>
       <c r="H31">
-        <v>152.016511989126</v>
+        <v>46.46984</v>
       </c>
       <c r="I31">
-        <v>0.6788827661083993</v>
+        <v>0.05879779223614324</v>
       </c>
       <c r="J31">
-        <v>0.6788827661083993</v>
+        <v>0.08008201005096623</v>
       </c>
       <c r="K31">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L31">
         <v>1</v>
       </c>
       <c r="M31">
-        <v>13.3788402946351</v>
+        <v>13.5936885</v>
       </c>
       <c r="N31">
-        <v>13.3788402946351</v>
+        <v>27.187377</v>
       </c>
       <c r="O31">
-        <v>0.05580875196691948</v>
+        <v>0.05520012765271271</v>
       </c>
       <c r="P31">
-        <v>0.05580875196691948</v>
+        <v>0.04376714841860452</v>
       </c>
       <c r="Q31">
-        <v>2033.804636049999</v>
+        <v>210.56550986828</v>
       </c>
       <c r="R31">
-        <v>2033.804636049999</v>
+        <v>1263.39305920968</v>
       </c>
       <c r="S31">
-        <v>0.03788759990835986</v>
+        <v>0.003245645637132787</v>
       </c>
       <c r="T31">
-        <v>0.03788759990835986</v>
+        <v>0.003504961219560818</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32" t="s">
+        <v>20</v>
+      </c>
+      <c r="E32">
+        <v>2</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32">
+        <v>189.0471995</v>
+      </c>
+      <c r="H32">
+        <v>378.094399</v>
+      </c>
+      <c r="I32">
+        <v>0.717598207290517</v>
+      </c>
+      <c r="J32">
+        <v>0.6515744289399755</v>
+      </c>
+      <c r="K32">
+        <v>2</v>
+      </c>
+      <c r="L32">
+        <v>1</v>
+      </c>
+      <c r="M32">
+        <v>104.0097425</v>
+      </c>
+      <c r="N32">
+        <v>208.019485</v>
+      </c>
+      <c r="O32">
+        <v>0.4223541729035338</v>
+      </c>
+      <c r="P32">
+        <v>0.3348767214268842</v>
+      </c>
+      <c r="Q32">
+        <v>19662.75054034113</v>
+      </c>
+      <c r="R32">
+        <v>78651.00216136452</v>
+      </c>
+      <c r="S32">
+        <v>0.3030805973172449</v>
+      </c>
+      <c r="T32">
+        <v>0.2181971085290133</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" t="s">
+        <v>27</v>
+      </c>
+      <c r="D33" t="s">
+        <v>21</v>
+      </c>
+      <c r="E33">
+        <v>2</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <v>189.0471995</v>
+      </c>
+      <c r="H33">
+        <v>378.094399</v>
+      </c>
+      <c r="I33">
+        <v>0.717598207290517</v>
+      </c>
+      <c r="J33">
+        <v>0.6515744289399755</v>
+      </c>
+      <c r="K33">
+        <v>3</v>
+      </c>
+      <c r="L33">
+        <v>1</v>
+      </c>
+      <c r="M33">
+        <v>58.20636966666666</v>
+      </c>
+      <c r="N33">
+        <v>174.619109</v>
+      </c>
+      <c r="O33">
+        <v>0.2363596190835905</v>
+      </c>
+      <c r="P33">
+        <v>0.2811076795060988</v>
+      </c>
+      <c r="Q33">
+        <v>11003.75117854508</v>
+      </c>
+      <c r="R33">
+        <v>66022.50707127049</v>
+      </c>
+      <c r="S33">
+        <v>0.169611238930254</v>
+      </c>
+      <c r="T33">
+        <v>0.183162575744828</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" t="s">
+        <v>22</v>
+      </c>
+      <c r="E34">
+        <v>2</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34">
+        <v>189.0471995</v>
+      </c>
+      <c r="H34">
+        <v>378.094399</v>
+      </c>
+      <c r="I34">
+        <v>0.717598207290517</v>
+      </c>
+      <c r="J34">
+        <v>0.6515744289399755</v>
+      </c>
+      <c r="K34">
+        <v>2</v>
+      </c>
+      <c r="L34">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M34">
+        <v>0.03002933333333333</v>
+      </c>
+      <c r="N34">
+        <v>0.090088</v>
+      </c>
+      <c r="O34">
+        <v>0.0001219406368864389</v>
+      </c>
+      <c r="P34">
+        <v>0.0001450266742074914</v>
+      </c>
+      <c r="Q34">
+        <v>5.676961369518667</v>
+      </c>
+      <c r="R34">
+        <v>34.061768217112</v>
+      </c>
+      <c r="S34">
+        <v>8.750438242557249E-05</v>
+      </c>
+      <c r="T34">
+        <v>9.449567242781007E-05</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" t="s">
+        <v>25</v>
+      </c>
+      <c r="B35" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35" t="s">
+        <v>27</v>
+      </c>
+      <c r="D35" t="s">
+        <v>23</v>
+      </c>
+      <c r="E35">
+        <v>2</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35">
+        <v>189.0471995</v>
+      </c>
+      <c r="H35">
+        <v>378.094399</v>
+      </c>
+      <c r="I35">
+        <v>0.717598207290517</v>
+      </c>
+      <c r="J35">
+        <v>0.6515744289399755</v>
+      </c>
+      <c r="K35">
+        <v>3</v>
+      </c>
+      <c r="L35">
+        <v>1</v>
+      </c>
+      <c r="M35">
+        <v>0.1136856666666667</v>
+      </c>
+      <c r="N35">
+        <v>0.341057</v>
+      </c>
+      <c r="O35">
+        <v>0.0004616453666923254</v>
+      </c>
+      <c r="P35">
+        <v>0.0005490449607626364</v>
+      </c>
+      <c r="Q35">
+        <v>21.49195690662383</v>
+      </c>
+      <c r="R35">
+        <v>128.951741439743</v>
+      </c>
+      <c r="S35">
+        <v>0.0003312758875423861</v>
+      </c>
+      <c r="T35">
+        <v>0.0003577436567712861</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" t="s">
+        <v>25</v>
+      </c>
+      <c r="B36" t="s">
+        <v>26</v>
+      </c>
+      <c r="C36" t="s">
+        <v>27</v>
+      </c>
+      <c r="D36" t="s">
+        <v>24</v>
+      </c>
+      <c r="E36">
+        <v>2</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36">
+        <v>189.0471995</v>
+      </c>
+      <c r="H36">
+        <v>378.094399</v>
+      </c>
+      <c r="I36">
+        <v>0.717598207290517</v>
+      </c>
+      <c r="J36">
+        <v>0.6515744289399755</v>
+      </c>
+      <c r="K36">
+        <v>3</v>
+      </c>
+      <c r="L36">
+        <v>1</v>
+      </c>
+      <c r="M36">
+        <v>70.30838766666666</v>
+      </c>
+      <c r="N36">
+        <v>210.925163</v>
+      </c>
+      <c r="O36">
+        <v>0.285502494356584</v>
+      </c>
+      <c r="P36">
+        <v>0.3395543790134426</v>
+      </c>
+      <c r="Q36">
+        <v>13291.60378974367</v>
+      </c>
+      <c r="R36">
+        <v>79749.62273846204</v>
+      </c>
+      <c r="S36">
+        <v>0.2048760781272557</v>
+      </c>
+      <c r="T36">
+        <v>0.2212449505997519</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" t="s">
+        <v>25</v>
+      </c>
+      <c r="B37" t="s">
+        <v>26</v>
+      </c>
+      <c r="C37" t="s">
+        <v>27</v>
+      </c>
+      <c r="D37" t="s">
+        <v>25</v>
+      </c>
+      <c r="E37">
+        <v>2</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37">
+        <v>189.0471995</v>
+      </c>
+      <c r="H37">
+        <v>378.094399</v>
+      </c>
+      <c r="I37">
+        <v>0.717598207290517</v>
+      </c>
+      <c r="J37">
+        <v>0.6515744289399755</v>
+      </c>
+      <c r="K37">
+        <v>2</v>
+      </c>
+      <c r="L37">
+        <v>1</v>
+      </c>
+      <c r="M37">
+        <v>13.5936885</v>
+      </c>
+      <c r="N37">
+        <v>27.187377</v>
+      </c>
+      <c r="O37">
+        <v>0.05520012765271271</v>
+      </c>
+      <c r="P37">
+        <v>0.04376714841860452</v>
+      </c>
+      <c r="Q37">
+        <v>2569.848741800356</v>
+      </c>
+      <c r="R37">
+        <v>10279.39496720142</v>
+      </c>
+      <c r="S37">
+        <v>0.03961151264579434</v>
+      </c>
+      <c r="T37">
+        <v>0.02851755473718339</v>
       </c>
     </row>
   </sheetData>
